--- a/data/trans_bre/P1410-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1410-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.039822332238791</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-1.987550318614295</v>
+        <v>-1.987550318614296</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.01822406296776919</v>
@@ -649,7 +649,7 @@
         <v>0.3191383411296232</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.2407260190714427</v>
+        <v>-0.2407260190714429</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.875795434901592</v>
+        <v>-2.83113920990858</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2243502687286139</v>
+        <v>0.5653948106830133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5482454351616104</v>
+        <v>-0.5094963407309953</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.957748577428688</v>
+        <v>-5.049351951814417</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3306572047968498</v>
+        <v>-0.3199535332154985</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02551407558067817</v>
+        <v>0.1160977785026819</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1595725613709973</v>
+        <v>-0.1485272729952841</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4798497507573436</v>
+        <v>-0.480914562425189</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.493196669248812</v>
+        <v>2.472433080649426</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.925629088067088</v>
+        <v>4.109288422535943</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.701576948671537</v>
+        <v>2.709248540591821</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5897651711691132</v>
+        <v>0.541371571145227</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4519143670803873</v>
+        <v>0.4597006983461545</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.52407582252854</v>
+        <v>1.547365374910865</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.040593615589934</v>
+        <v>1.034786099520442</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.120835612246726</v>
+        <v>0.09318223106405081</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.6936983221373</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.156721059846586</v>
+        <v>-1.156721059846589</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.3902068474015493</v>
@@ -749,7 +749,7 @@
         <v>0.4588679817290929</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1955697208436534</v>
+        <v>-0.1955697208436538</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.436789908678407</v>
+        <v>-3.573811906737646</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.318838182015447</v>
+        <v>-1.105633668773037</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.04842350305640034</v>
+        <v>-0.07503428346478018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.948357923322036</v>
+        <v>-2.93249812230182</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5963026303820711</v>
+        <v>-0.6118023570475751</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2800312268271443</v>
+        <v>-0.2453517934401892</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.03821724924518337</v>
+        <v>-0.02180224125885229</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4108507589487136</v>
+        <v>-0.4173565004657127</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.06578959049779669</v>
+        <v>-0.1952730006285992</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.053922516789223</v>
+        <v>2.116190540814588</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.707330605933135</v>
+        <v>3.831508021841569</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5781735442817314</v>
+        <v>0.6042968822620018</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02139085413487931</v>
+        <v>-0.03749911094606381</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7608933322284034</v>
+        <v>0.7848697517426526</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.341685733338035</v>
+        <v>1.373559029672717</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1339447117180786</v>
+        <v>0.1280901544900064</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-0.7707843827151222</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3950248816232266</v>
+        <v>0.3950248816232272</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.4143542423057352</v>
@@ -849,7 +849,7 @@
         <v>-0.179703267348429</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0988797812369397</v>
+        <v>0.09887978123693988</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.736959391195077</v>
+        <v>-2.554494152285226</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.540977561025623</v>
+        <v>-3.776716899083289</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.75565333618336</v>
+        <v>-2.78855339144584</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.190739641596576</v>
+        <v>-1.113046244258963</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6860532934983277</v>
+        <v>-0.658268856323478</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5680584297068073</v>
+        <v>-0.5723947632210084</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.539723260678497</v>
+        <v>-0.5294788758108149</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2515804988326535</v>
+        <v>-0.2332981988928678</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.1441640106087267</v>
+        <v>-0.03175809198641239</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4697600575128893</v>
+        <v>0.431475912685688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.47118415960976</v>
+        <v>1.125865790372915</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.846544429850981</v>
+        <v>1.809780689829663</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.03020476985259932</v>
+        <v>0.04583731219775792</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1324321496129555</v>
+        <v>0.1597744921677096</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5172345694112835</v>
+        <v>0.3134795155248756</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5769058185153138</v>
+        <v>0.5629906854642704</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.3242245085188812</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.588109952125986</v>
+        <v>-2.588109952125985</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1993925563793491</v>
@@ -949,7 +949,7 @@
         <v>0.07822095680034333</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.5076620893737133</v>
+        <v>-0.5076620893737132</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.78724795491658</v>
+        <v>-1.703927705173776</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.423800061154943</v>
+        <v>-3.342713740886868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.227682147800675</v>
+        <v>-2.323723458918856</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.198964741455347</v>
+        <v>-4.177349185879561</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.51442438750568</v>
+        <v>-0.4982375943931452</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8300166862943089</v>
+        <v>-0.8148247214494028</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4347224254226624</v>
+        <v>-0.4574586579098113</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.678655768837817</v>
+        <v>-0.6799537595388085</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.126164190725975</v>
+        <v>3.32361657687493</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.633462940648499</v>
+        <v>0.6061753472820784</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.126098510952885</v>
+        <v>2.836393374887123</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.101350699967333</v>
+        <v>-1.009756557451502</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.771030180745834</v>
+        <v>2.000550053940777</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5888375389123901</v>
+        <v>0.5224074320709651</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.137871862077582</v>
+        <v>0.9335618964882796</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.25877117068428</v>
+        <v>-0.2430279212872644</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.1863460846700074</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1998456811087138</v>
+        <v>-0.1998456811087139</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.538135668723709</v>
+        <v>-1.491455447566735</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7593228557397852</v>
+        <v>-0.7671281427423982</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2363655329408821</v>
+        <v>-0.3134900070108569</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.934499177804739</v>
+        <v>-1.99769959400692</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3174910899697911</v>
+        <v>-0.3095811434712797</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1703076310481895</v>
+        <v>-0.1691831576945264</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.06279452864134698</v>
+        <v>-0.06977100493830078</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3294509118595431</v>
+        <v>-0.3368911199331562</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2918594187310645</v>
+        <v>0.3703576045240394</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.124395820324052</v>
+        <v>1.153654233389732</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.747297581755378</v>
+        <v>1.629584645704057</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.2511584648659789</v>
+        <v>-0.1139966126916738</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.07569366268792491</v>
+        <v>0.0974115421987507</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3286382603619971</v>
+        <v>0.3416564658154618</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5226054417292031</v>
+        <v>0.4973095052313987</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.05303421100490097</v>
+        <v>-0.02348399279591318</v>
       </c>
     </row>
     <row r="19">
